--- a/00卫生监督进度V7.0.xlsx
+++ b/00卫生监督进度V7.0.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\WSJD1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D232E3BE-94C3-4E66-9E7A-39E496B81106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19191DB2-A9F8-4FE5-91E6-0CE22CBB7CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卫生监督进度表" sheetId="1" r:id="rId1"/>
-    <sheet name="已停业" sheetId="2" r:id="rId2"/>
-    <sheet name="被监督单位概述" sheetId="3" r:id="rId3"/>
+    <sheet name="评分记录" sheetId="4" r:id="rId2"/>
+    <sheet name="已停业" sheetId="2" r:id="rId3"/>
+    <sheet name="被监督单位概述" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="154">
   <si>
     <t>单位名称</t>
   </si>
@@ -509,6 +510,10 @@
   </si>
   <si>
     <t>分级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生许可评分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +863,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,36 +925,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -960,6 +936,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2007,11 +2018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2024,136 +2035,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="29">
+      <c r="D1" s="27">
         <v>43466</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="23">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30">
         <v>43498</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="23">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30">
         <v>43530</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="23">
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30">
         <v>43562</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23">
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30">
         <v>43594</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="23">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="30">
         <v>43626</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23">
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="30">
         <v>43658</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="23">
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="30">
         <v>43690</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="23">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30">
         <v>43722</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="23">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30">
         <v>43754</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="23">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="30">
         <v>43786</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="23">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="30">
         <v>43809</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="23">
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30">
         <v>43840</v>
       </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="23">
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="30">
         <v>43870</v>
       </c>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="23">
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="30">
         <v>43900</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="23">
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="30">
         <v>43930</v>
       </c>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="23">
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="30">
         <v>43960</v>
       </c>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="23">
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="30">
         <v>43990</v>
       </c>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="23">
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="30">
         <v>44020</v>
       </c>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="23">
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="30">
         <v>44050</v>
       </c>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="23">
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="30">
         <v>44080</v>
       </c>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="23">
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="30">
         <v>44110</v>
       </c>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="23">
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="30">
         <v>44140</v>
       </c>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="23">
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="30">
         <v>44170</v>
       </c>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="23">
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="30">
         <v>44200</v>
       </c>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="23">
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="30">
         <v>44230</v>
       </c>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="25"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="29"/>
     </row>
     <row r="2" spans="1:81" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -2162,7 +2173,7 @@
       <c r="B2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -2407,7 +2418,7 @@
       <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="15">
         <v>8</v>
       </c>
@@ -2556,7 +2567,7 @@
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
@@ -2703,11 +2714,11 @@
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -2846,11 +2857,11 @@
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2987,11 +2998,11 @@
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3139,7 @@
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
@@ -3271,11 +3282,11 @@
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -3414,11 +3425,11 @@
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="20" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +3566,7 @@
       <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
@@ -3702,7 +3713,7 @@
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3856,7 @@
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
@@ -3940,7 +3951,7 @@
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="15" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4098,7 @@
       <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="15">
         <v>1</v>
       </c>
@@ -4236,7 +4247,7 @@
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="15">
         <v>3</v>
       </c>
@@ -4385,7 +4396,7 @@
       <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
@@ -4484,7 +4495,7 @@
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="15" t="s">
         <v>8</v>
       </c>
@@ -4583,7 +4594,7 @@
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="15" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +4693,7 @@
       <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
@@ -4781,7 +4792,7 @@
       <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="15" t="s">
         <v>8</v>
       </c>
@@ -4880,7 +4891,7 @@
       <c r="B22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="15">
         <v>5</v>
       </c>
@@ -5027,7 +5038,7 @@
       <c r="B23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5185,7 @@
       <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>7</v>
       </c>
@@ -5323,7 +5334,7 @@
       <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="15" t="s">
         <v>7</v>
       </c>
@@ -5470,7 +5481,7 @@
       <c r="B26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="15">
         <v>4</v>
       </c>
@@ -5619,7 +5630,7 @@
       <c r="B27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="16" t="s">
         <v>8</v>
       </c>
@@ -5766,7 +5777,7 @@
       <c r="B28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="42"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
@@ -5913,7 +5924,7 @@
       <c r="B29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="16"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -6016,7 +6027,7 @@
       <c r="B30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
@@ -6163,7 +6174,7 @@
       <c r="B31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="15">
         <v>2</v>
       </c>
@@ -6306,7 +6317,7 @@
       <c r="B32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="15" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6466,7 @@
       <c r="B33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="15" t="s">
         <v>7</v>
       </c>
@@ -6602,7 +6613,7 @@
       <c r="B34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="15"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -6695,7 +6706,7 @@
       <c r="B35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="15"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -6788,7 +6799,7 @@
       <c r="B36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="15" t="s">
         <v>8</v>
       </c>
@@ -6934,6 +6945,26 @@
     <row r="38" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="M1:O1"/>
@@ -6942,26 +6973,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D10 F10 D28:F36 P16:R21 D9:F9 S9:U10 S31:AD31 G9:O10 D31:O31 D32:AD36 D11:O27 D14:AM14 AE31:CC36 D3:CC8 S11:CC27">
@@ -7165,6 +7176,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63860F-157E-479B-BBD3-EDD76163C7F3}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
@@ -7184,7 +7395,7 @@
       <c r="C1" s="15">
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -7300,7 +7511,7 @@
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
@@ -7631,7 +7842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -7705,7 +7916,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -7731,7 +7942,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>71</v>
       </c>
@@ -7753,7 +7964,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>75</v>
       </c>
@@ -7775,7 +7986,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>79</v>
       </c>
@@ -7797,7 +8008,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>82</v>
       </c>
@@ -7821,7 +8032,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>85</v>
       </c>
@@ -7845,7 +8056,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>89</v>
       </c>
@@ -7869,7 +8080,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
         <v>91</v>
       </c>
@@ -7889,7 +8100,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
@@ -7913,7 +8124,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -7939,7 +8150,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="13" t="s">
         <v>101</v>
       </c>
@@ -7961,7 +8172,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="13" t="s">
         <v>104</v>
       </c>
@@ -7981,7 +8192,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="13" t="s">
         <v>106</v>
       </c>
@@ -8001,7 +8212,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="13" t="s">
         <v>109</v>
       </c>
@@ -8023,7 +8234,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="13" t="s">
         <v>112</v>
       </c>
@@ -8047,7 +8258,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="13" t="s">
         <v>79</v>
       </c>
@@ -8069,7 +8280,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="13" t="s">
         <v>114</v>
       </c>
@@ -8091,7 +8302,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="13" t="s">
         <v>116</v>
       </c>
@@ -8115,7 +8326,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
@@ -8137,7 +8348,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="13" t="s">
         <v>120</v>
       </c>
@@ -8159,7 +8370,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
@@ -8181,7 +8392,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="13" t="s">
         <v>124</v>
       </c>
@@ -8227,7 +8438,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="36" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -8249,7 +8460,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>79</v>
       </c>
@@ -8271,7 +8482,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="21" t="s">
         <v>89</v>
       </c>
@@ -8299,210 +8510,201 @@
       <c r="B31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="36" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <v>5</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="34" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="34">
         <v>1</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="34">
         <v>1</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="34">
         <v>1</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="36" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="34">
         <v>1</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="34">
         <v>1</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="34">
         <v>1</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="34">
         <v>1</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="36" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="34">
         <v>1</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="34">
         <v>10</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="34">
         <v>1</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33">
+      <c r="B43" s="35"/>
+      <c r="C43" s="34">
         <v>24</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="E31:F31"/>
@@ -8519,6 +8721,15 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00卫生监督进度V7.0.xlsx
+++ b/00卫生监督进度V7.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\WSJD1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19191DB2-A9F8-4FE5-91E6-0CE22CBB7CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E3685-C892-4091-97BD-D884C1339331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,8 +521,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -863,7 +864,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,21 +929,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,16 +946,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -969,7 +961,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2019,152 +2033,153 @@
   <dimension ref="A1:CC38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25.25" style="9" customWidth="1"/>
-    <col min="2" max="3" width="6.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="48" customWidth="1"/>
     <col min="4" max="81" width="5.25" style="9" customWidth="1"/>
     <col min="82" max="91" width="8.58203125" style="9" customWidth="1"/>
     <col min="92" max="16384" width="8.58203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="27">
+      <c r="D1" s="28">
         <v>43466</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25">
         <v>43498</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30">
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25">
         <v>43530</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30">
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="25">
         <v>43562</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30">
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="25">
         <v>43594</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="30">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="25">
         <v>43626</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30">
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="25">
         <v>43658</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="30">
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="25">
         <v>43690</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="30">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="25">
         <v>43722</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="30">
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="25">
         <v>43754</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="30">
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="25">
         <v>43786</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="30">
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="25">
         <v>43809</v>
       </c>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="30">
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="25">
         <v>43840</v>
       </c>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="30">
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="25">
         <v>43870</v>
       </c>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="30">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="25">
         <v>43900</v>
       </c>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="30">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="25">
         <v>43930</v>
       </c>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="30">
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="25">
         <v>43960</v>
       </c>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="30">
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="25">
         <v>43990</v>
       </c>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="30">
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="25">
         <v>44020</v>
       </c>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="30">
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="25">
         <v>44050</v>
       </c>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="30">
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="25">
         <v>44080</v>
       </c>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="30">
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="25">
         <v>44110</v>
       </c>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="30">
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="25">
         <v>44140</v>
       </c>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="30">
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="25">
         <v>44170</v>
       </c>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="30">
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="25">
         <v>44200</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="30">
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="25">
         <v>44230</v>
       </c>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="29"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="27"/>
     </row>
     <row r="2" spans="1:81" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -2173,7 +2188,7 @@
       <c r="B2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="49" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -2418,7 +2433,9 @@
       <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="47">
+        <v>43481</v>
+      </c>
       <c r="D3" s="15">
         <v>8</v>
       </c>
@@ -2567,7 +2584,7 @@
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
@@ -2714,11 +2731,11 @@
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -2857,11 +2874,11 @@
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
@@ -2998,11 +3015,11 @@
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3156,7 @@
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
@@ -3282,11 +3299,11 @@
       <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -3425,11 +3442,11 @@
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3583,7 @@
       <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
@@ -3713,7 +3730,7 @@
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="15" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3873,7 @@
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
@@ -3951,7 +3968,7 @@
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="15" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4115,7 @@
       <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="15">
         <v>1</v>
       </c>
@@ -4247,7 +4264,7 @@
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="15">
         <v>3</v>
       </c>
@@ -4396,7 +4413,7 @@
       <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4512,7 @@
       <c r="B18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="15" t="s">
         <v>8</v>
       </c>
@@ -4594,7 +4611,7 @@
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="15" t="s">
         <v>8</v>
       </c>
@@ -4693,7 +4710,7 @@
       <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="15" t="s">
         <v>8</v>
       </c>
@@ -4792,7 +4809,7 @@
       <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="15" t="s">
         <v>8</v>
       </c>
@@ -4891,7 +4908,7 @@
       <c r="B22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="15">
         <v>5</v>
       </c>
@@ -5038,7 +5055,7 @@
       <c r="B23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
@@ -5185,7 +5202,7 @@
       <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="15" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5351,7 @@
       <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="15" t="s">
         <v>7</v>
       </c>
@@ -5481,7 +5498,7 @@
       <c r="B26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="15">
         <v>4</v>
       </c>
@@ -5630,7 +5647,7 @@
       <c r="B27" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="16" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +5794,7 @@
       <c r="B28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
@@ -5924,7 +5941,7 @@
       <c r="B29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="16"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -6027,7 +6044,7 @@
       <c r="B30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
@@ -6174,7 +6191,7 @@
       <c r="B31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="15">
         <v>2</v>
       </c>
@@ -6317,7 +6334,7 @@
       <c r="B32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="15" t="s">
         <v>7</v>
       </c>
@@ -6466,7 +6483,7 @@
       <c r="B33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="15" t="s">
         <v>7</v>
       </c>
@@ -6613,7 +6630,7 @@
       <c r="B34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="15"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -6706,7 +6723,7 @@
       <c r="B35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="15"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -6799,7 +6816,7 @@
       <c r="B36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="15" t="s">
         <v>8</v>
       </c>
@@ -6945,6 +6962,26 @@
     <row r="38" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
     <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="BX1:BZ1"/>
     <mergeCell ref="CA1:CC1"/>
@@ -6953,26 +6990,6 @@
     <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="BO1:BQ1"/>
     <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D10 F10 D28:F36 P16:R21 D9:F9 S9:U10 S31:AD31 G9:O10 D31:O31 D32:AD36 D11:O27 D14:AM14 AE31:CC36 D3:CC8 S11:CC27">
@@ -7177,194 +7194,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C63860F-157E-479B-BBD3-EDD76163C7F3}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A2:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="13.08203125" style="45" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="45"/>
+    <col min="1" max="1" width="24.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="10.9140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="2" spans="1:30" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B2" s="45" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="C2" s="46">
+        <v>43358</v>
+      </c>
+      <c r="D2" s="46">
+        <v>43388</v>
+      </c>
+      <c r="E2" s="46">
+        <v>43419</v>
+      </c>
+      <c r="F2" s="46">
+        <v>43449</v>
+      </c>
+      <c r="G2" s="46">
+        <v>43480</v>
+      </c>
+      <c r="H2" s="46">
+        <v>43511</v>
+      </c>
+      <c r="I2" s="46">
+        <v>43539</v>
+      </c>
+      <c r="J2" s="46">
+        <v>43570</v>
+      </c>
+      <c r="K2" s="46">
+        <v>43600</v>
+      </c>
+      <c r="L2" s="46">
+        <v>43631</v>
+      </c>
+      <c r="M2" s="46">
+        <v>43661</v>
+      </c>
+      <c r="N2" s="46">
+        <v>43692</v>
+      </c>
+      <c r="O2" s="46">
+        <v>43723</v>
+      </c>
+      <c r="P2" s="46">
+        <v>43753</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>43784</v>
+      </c>
+      <c r="R2" s="46">
+        <v>43814</v>
+      </c>
+      <c r="S2" s="46">
+        <v>43845</v>
+      </c>
+      <c r="T2" s="46">
+        <v>43876</v>
+      </c>
+      <c r="U2" s="46">
+        <v>43905</v>
+      </c>
+      <c r="V2" s="46">
+        <v>43936</v>
+      </c>
+      <c r="W2" s="46">
+        <v>43966</v>
+      </c>
+      <c r="X2" s="46">
+        <v>43997</v>
+      </c>
+      <c r="Y2" s="46">
+        <v>44027</v>
+      </c>
+      <c r="Z2" s="46">
+        <v>44058</v>
+      </c>
+      <c r="AA2" s="46">
+        <v>44089</v>
+      </c>
+      <c r="AB2" s="46">
+        <v>44119</v>
+      </c>
+      <c r="AC2" s="46">
+        <v>44150</v>
+      </c>
+      <c r="AD2" s="46">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="4" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="5" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="6" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="7" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="8" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="9" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="10" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="11" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="12" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+    <row r="15" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+    <row r="16" spans="1:30" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="17" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="18" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    <row r="21" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+    <row r="22" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+    <row r="23" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+    <row r="24" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+    <row r="25" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+    <row r="26" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+    <row r="27" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+    <row r="28" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+    <row r="29" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+    <row r="30" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+    <row r="31" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    <row r="32" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+    <row r="33" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+    <row r="36" spans="1:1" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7395,7 +7496,7 @@
       <c r="C1" s="15">
         <v>7</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
@@ -7511,7 +7612,7 @@
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
@@ -7916,7 +8017,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -7942,7 +8043,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="13" t="s">
         <v>71</v>
       </c>
@@ -7964,7 +8065,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="13" t="s">
         <v>75</v>
       </c>
@@ -7986,7 +8087,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="13" t="s">
         <v>79</v>
       </c>
@@ -8008,7 +8109,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="13" t="s">
         <v>82</v>
       </c>
@@ -8032,7 +8133,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="13" t="s">
         <v>85</v>
       </c>
@@ -8056,7 +8157,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="13" t="s">
         <v>89</v>
       </c>
@@ -8080,7 +8181,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="13" t="s">
         <v>91</v>
       </c>
@@ -8100,7 +8201,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
@@ -8124,7 +8225,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -8150,7 +8251,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="13" t="s">
         <v>101</v>
       </c>
@@ -8172,7 +8273,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="13" t="s">
         <v>104</v>
       </c>
@@ -8192,7 +8293,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="13" t="s">
         <v>106</v>
       </c>
@@ -8212,7 +8313,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="13" t="s">
         <v>109</v>
       </c>
@@ -8234,7 +8335,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="13" t="s">
         <v>112</v>
       </c>
@@ -8258,7 +8359,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="13" t="s">
         <v>79</v>
       </c>
@@ -8280,7 +8381,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="13" t="s">
         <v>114</v>
       </c>
@@ -8302,7 +8403,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="13" t="s">
         <v>116</v>
       </c>
@@ -8326,7 +8427,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
@@ -8348,7 +8449,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="13" t="s">
         <v>120</v>
       </c>
@@ -8370,7 +8471,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>123</v>
       </c>
@@ -8392,7 +8493,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="13" t="s">
         <v>124</v>
       </c>
@@ -8438,7 +8539,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="42" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -8460,7 +8561,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="21" t="s">
         <v>79</v>
       </c>
@@ -8482,7 +8583,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="21" t="s">
         <v>89</v>
       </c>
@@ -8510,201 +8611,210 @@
       <c r="B31" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34" t="s">
+      <c r="D31" s="34"/>
+      <c r="E31" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="35">
         <v>5</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="35">
         <v>1</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="35">
         <v>1</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="35">
         <v>1</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="42" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="35">
         <v>1</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="35">
         <v>1</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="35">
         <v>1</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="35">
         <v>1</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="42" t="s">
         <v>144</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="35">
         <v>1</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="35">
         <v>10</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="35">
         <v>1</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="34">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35">
         <v>24</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="44"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="35"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="35"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="35"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="E31:F31"/>
@@ -8721,15 +8831,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00卫生监督进度V7.0.xlsx
+++ b/00卫生监督进度V7.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="975" yWindow="-105" windowWidth="18345" windowHeight="11025" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="卫生监督进度表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="已停业" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="被监督单位概述" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="卫生监督进度表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="已停业" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="被监督单位概述" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1519,7 +1519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB38"/>
+  <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1528,7 +1528,7 @@
       <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col width="25.25" customWidth="1" style="9" min="1" max="1"/>
     <col width="6.75" customWidth="1" style="9" min="2" max="2"/>
@@ -9374,7 +9374,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col width="13.375" customWidth="1" style="10" min="1" max="1"/>
     <col width="17.375" customWidth="1" style="11" min="2" max="2"/>

--- a/00卫生监督进度V7.0.xlsx
+++ b/00卫生监督进度V7.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="970" yWindow="-110" windowWidth="18340" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="卫生监督进度表" sheetId="1" state="visible" r:id="rId1"/>
@@ -462,12 +462,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -476,13 +476,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -491,9 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,11 +1552,11 @@
   </sheetPr>
   <dimension ref="A1:CC36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.58203125" defaultRowHeight="16.5"/>
@@ -1565,8 +1565,8 @@
     <col width="6.75" customWidth="1" style="8" min="2" max="2"/>
     <col width="13.33203125" customWidth="1" style="48" min="3" max="3"/>
     <col width="5.25" customWidth="1" style="8" min="4" max="81"/>
-    <col width="8.58203125" customWidth="1" style="8" min="82" max="94"/>
-    <col width="8.58203125" customWidth="1" style="8" min="95" max="16384"/>
+    <col width="8.58203125" customWidth="1" style="8" min="82" max="99"/>
+    <col width="8.58203125" customWidth="1" style="8" min="100" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.15" customHeight="1" thickTop="1">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="C4" s="52" t="n">
-        <v>43440</v>
+        <v>43410</v>
       </c>
       <c r="D4" s="14" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="C6" s="52" t="n">
-        <v>43411</v>
+        <v>43441</v>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C7" s="52" t="n">
-        <v>43412</v>
+        <v>43442</v>
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="C8" s="52" t="n">
-        <v>43413</v>
+        <v>43474</v>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="C10" s="52" t="n">
-        <v>43415</v>
+        <v>43474</v>
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C15" s="52" t="n">
-        <v>43420</v>
+        <v>43512</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>1</v>
@@ -4719,11 +4719,11 @@
       </c>
       <c r="B16" s="17" t="inlineStr">
         <is>
-          <t>B级</t>
+          <t>A级</t>
         </is>
       </c>
       <c r="C16" s="52" t="n">
-        <v>43421</v>
+        <v>43513</v>
       </c>
       <c r="D16" s="14" t="n">
         <v>3</v>
@@ -4883,13 +4883,25 @@
       </c>
       <c r="AL16" s="34" t="n"/>
       <c r="AM16" s="34" t="n"/>
-      <c r="AN16" s="2" t="n"/>
+      <c r="AN16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AO16" s="34" t="n"/>
       <c r="AP16" s="34" t="n"/>
-      <c r="AQ16" s="2" t="n"/>
+      <c r="AQ16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AR16" s="34" t="n"/>
       <c r="AS16" s="34" t="n"/>
-      <c r="AT16" s="2" t="n"/>
+      <c r="AT16" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AU16" s="34" t="n"/>
       <c r="AV16" s="34" t="n"/>
       <c r="AW16" s="2" t="n"/>
@@ -8384,6 +8396,26 @@
     <row r="38" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="M1:O1"/>
@@ -8392,26 +8424,6 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
   </mergeCells>
   <conditionalFormatting sqref="D10 F10 D28:F36 P16:R21 D9:F9 S9:U10 S31:AD31 G9:O10 D31:O31 D32:AD36 D11:O27 D14:AM14 AE31:CC36 D3:CC8 S11:CC27">
     <cfRule type="containsBlanks" priority="308" dxfId="1">
@@ -8621,16 +8633,16 @@
   </sheetPr>
   <dimension ref="A2:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.9140625" defaultRowHeight="14"/>
   <cols>
     <col width="24.1640625" customWidth="1" style="19" min="1" max="1"/>
     <col width="12.9140625" customWidth="1" style="19" min="2" max="2"/>
-    <col width="10.9140625" customWidth="1" style="19" min="3" max="3"/>
-    <col width="10.9140625" customWidth="1" style="19" min="4" max="16384"/>
+    <col width="10.9140625" customWidth="1" style="19" min="3" max="8"/>
+    <col width="10.9140625" customWidth="1" style="19" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" customFormat="1" customHeight="1" s="53">
@@ -8723,6 +8735,15 @@
           <t>配餐公司-生产</t>
         </is>
       </c>
+      <c r="B3" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>21</v>
+      </c>
       <c r="E3" s="20" t="n">
         <v>21</v>
       </c>
@@ -8736,6 +8757,42 @@
           <t>（1）号食堂-餐饮</t>
         </is>
       </c>
+      <c r="B4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L4" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M4" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A5" s="34" t="inlineStr">
@@ -8743,6 +8800,45 @@
           <t>小吃城-餐饮</t>
         </is>
       </c>
+      <c r="B5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M5" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A6" s="34" t="inlineStr">
@@ -8750,6 +8846,42 @@
           <t>蓝仕咖啡-餐饮</t>
         </is>
       </c>
+      <c r="B6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A7" s="34" t="inlineStr">
@@ -8757,6 +8889,45 @@
           <t>牛肉面馆-餐饮</t>
         </is>
       </c>
+      <c r="B7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A8" s="34" t="inlineStr">
@@ -8764,6 +8935,42 @@
           <t>空港酒店-餐饮</t>
         </is>
       </c>
+      <c r="B8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M8" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A9" s="34" t="inlineStr">
@@ -8771,6 +8978,27 @@
           <t>小西湖-餐饮</t>
         </is>
       </c>
+      <c r="B9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="M9" s="20" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A10" s="34" t="inlineStr">
@@ -8778,6 +9006,45 @@
           <t>新林顿利-餐饮</t>
         </is>
       </c>
+      <c r="B10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M10" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A11" s="34" t="inlineStr">
@@ -8785,6 +9052,21 @@
           <t>万华楼-餐饮</t>
         </is>
       </c>
+      <c r="B11" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A12" s="34" t="inlineStr">
@@ -8792,6 +9074,27 @@
           <t>汉堡王-餐饮</t>
         </is>
       </c>
+      <c r="B12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="J12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="L12" s="20" t="n">
+        <v>67</v>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A13" s="34" t="inlineStr">
@@ -8799,6 +9102,45 @@
           <t>一木山楂-餐饮</t>
         </is>
       </c>
+      <c r="B13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M13" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A14" s="34" t="inlineStr">
@@ -8806,6 +9148,45 @@
           <t>空港酒店-销售</t>
         </is>
       </c>
+      <c r="B14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A15" s="34" t="inlineStr">
@@ -8813,6 +9194,21 @@
           <t>贵宾厅-销售</t>
         </is>
       </c>
+      <c r="B15" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M15" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A16" s="34" t="inlineStr">
@@ -8820,6 +9216,15 @@
           <t>首信经营部（2楼安检外西）</t>
         </is>
       </c>
+      <c r="B16" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L16" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A17" s="34" t="inlineStr">
@@ -8827,6 +9232,21 @@
           <t>雪域特产（2楼安检外东）</t>
         </is>
       </c>
+      <c r="B17" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M17" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A18" s="34" t="inlineStr">
@@ -8834,6 +9254,15 @@
           <t>首信商贸（远机位）</t>
         </is>
       </c>
+      <c r="B18" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L18" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A19" s="34" t="inlineStr">
@@ -8841,6 +9270,45 @@
           <t>葆晟经营部（1楼）</t>
         </is>
       </c>
+      <c r="B19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M19" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A20" s="34" t="inlineStr">
@@ -8848,6 +9316,45 @@
           <t>首信经营部（蓝仕咖啡南）</t>
         </is>
       </c>
+      <c r="B20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M20" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A21" s="34" t="inlineStr">
@@ -8855,6 +9362,45 @@
           <t>首信经营部（蓝仕咖啡西）</t>
         </is>
       </c>
+      <c r="B21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M21" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A22" s="34" t="inlineStr">
@@ -8862,6 +9408,45 @@
           <t>诺蓝杞-销售</t>
         </is>
       </c>
+      <c r="B22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M22" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A23" s="34" t="inlineStr">
@@ -8869,6 +9454,45 @@
           <t>阿米雪-销售</t>
         </is>
       </c>
+      <c r="B23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M23" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A24" s="34" t="inlineStr">
@@ -8876,6 +9500,45 @@
           <t>青青稞酒-销售</t>
         </is>
       </c>
+      <c r="B24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M24" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A25" s="34" t="inlineStr">
@@ -8883,6 +9546,45 @@
           <t>益鑫手抓-销售</t>
         </is>
       </c>
+      <c r="B25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M25" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A26" s="34" t="inlineStr">
@@ -8890,6 +9592,45 @@
           <t>货场小卖部-销售</t>
         </is>
       </c>
+      <c r="B26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M26" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A27" s="34" t="inlineStr">
@@ -8897,6 +9638,45 @@
           <t>一木山楂-销售</t>
         </is>
       </c>
+      <c r="B27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M27" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A28" s="34" t="inlineStr">
@@ -8904,6 +9684,45 @@
           <t>天佑牧人（2楼）-销售</t>
         </is>
       </c>
+      <c r="B28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M28" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A29" s="34" t="inlineStr">
@@ -8911,12 +9730,90 @@
           <t>天佑牧人（1楼）-销售</t>
         </is>
       </c>
+      <c r="B29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M29" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" ht="16.5" customFormat="1" customHeight="1" s="20">
       <c r="A30" s="34" t="inlineStr">
         <is>
           <t>千紫缘-销售</t>
         </is>
+      </c>
+      <c r="B30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="D30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="E30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="H30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="I30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="J30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="K30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="L30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="M30" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="16.5" customFormat="1" customHeight="1" s="20">
@@ -9668,90 +10565,90 @@
     <col width="13.83203125" customWidth="1" style="10" min="5" max="6"/>
     <col width="11.58203125" customWidth="1" style="10" min="7" max="7"/>
     <col width="30.33203125" customWidth="1" style="10" min="8" max="8"/>
-    <col width="8.58203125" customWidth="1" style="9" min="9" max="30"/>
-    <col width="8.58203125" customWidth="1" style="9" min="31" max="16384"/>
+    <col width="8.58203125" customWidth="1" style="9" min="9" max="35"/>
+    <col width="8.58203125" customWidth="1" style="9" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1">
-      <c r="A1" s="47" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>企业类型</t>
         </is>
       </c>
-      <c r="B1" s="40" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>企业名称</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>分级</t>
         </is>
       </c>
-      <c r="D1" s="40" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>负责人</t>
         </is>
       </c>
-      <c r="E1" s="40" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>食品安全管理员</t>
         </is>
       </c>
-      <c r="F1" s="40" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>卫生监督配合度</t>
         </is>
       </c>
-      <c r="G1" s="40" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>风险水平</t>
         </is>
       </c>
-      <c r="H1" s="40" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>主要风险点</t>
         </is>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1">
-      <c r="A2" s="47" t="inlineStr">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>食品生产</t>
         </is>
       </c>
-      <c r="B2" s="40" t="inlineStr">
+      <c r="B2" s="37" t="inlineStr">
         <is>
           <t>配餐公司</t>
         </is>
       </c>
-      <c r="C2" s="40" t="inlineStr">
+      <c r="C2" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D2" s="40" t="inlineStr">
+      <c r="D2" s="37" t="inlineStr">
         <is>
           <t>蔺国鑫</t>
         </is>
       </c>
-      <c r="E2" s="40" t="inlineStr">
+      <c r="E2" s="37" t="inlineStr">
         <is>
           <t>李孟俊
 马莲花</t>
         </is>
       </c>
-      <c r="F2" s="40" t="inlineStr">
+      <c r="F2" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G2" s="40" t="inlineStr">
+      <c r="G2" s="37" t="inlineStr">
         <is>
           <t>中高</t>
         </is>
       </c>
-      <c r="H2" s="40" t="inlineStr">
+      <c r="H2" s="37" t="inlineStr">
         <is>
           <t>过期食品
 微生物污染
@@ -9760,7 +10657,7 @@
       </c>
     </row>
     <row r="3" ht="38" customHeight="1">
-      <c r="A3" s="47" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>餐饮服务</t>
         </is>
@@ -9770,32 +10667,32 @@
           <t>万华楼牛肉面馆</t>
         </is>
       </c>
-      <c r="C3" s="40" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D3" s="40" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E3" s="40" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F3" s="40" t="inlineStr">
+      <c r="F3" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G3" s="40" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H3" s="40" t="inlineStr">
+      <c r="H3" s="37" t="inlineStr">
         <is>
           <t>后厨条件有限
 餐饮具微生物超标</t>
@@ -9809,28 +10706,28 @@
           <t>蓝仕咖啡</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="D4" s="37" t="inlineStr">
         <is>
           <t>夏文波</t>
         </is>
       </c>
-      <c r="E4" s="40" t="n"/>
-      <c r="F4" s="40" t="inlineStr">
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G4" s="40" t="inlineStr">
+      <c r="G4" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H4" s="40" t="inlineStr">
+      <c r="H4" s="37" t="inlineStr">
         <is>
           <t>后厨条件有限
 清洗消毒不规范</t>
@@ -9844,28 +10741,28 @@
           <t>牛肉面馆</t>
         </is>
       </c>
-      <c r="C5" s="40" t="inlineStr">
+      <c r="C5" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D5" s="40" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>夏文波</t>
         </is>
       </c>
-      <c r="E5" s="40" t="n"/>
-      <c r="F5" s="40" t="inlineStr">
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>一般</t>
         </is>
       </c>
-      <c r="G5" s="40" t="inlineStr">
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="H5" s="40" t="inlineStr">
+      <c r="H5" s="37" t="inlineStr">
         <is>
           <t>食品柜中曾发现蟑螂</t>
         </is>
@@ -9878,29 +10775,29 @@
           <t>空港酒店</t>
         </is>
       </c>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="C6" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D6" s="40" t="n"/>
-      <c r="E6" s="40" t="inlineStr">
+      <c r="D6" s="37" t="n"/>
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>王永芳
 王生鹏</t>
         </is>
       </c>
-      <c r="F6" s="40" t="inlineStr">
+      <c r="F6" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G6" s="40" t="inlineStr">
+      <c r="G6" s="37" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="H6" s="40" t="inlineStr">
+      <c r="H6" s="37" t="inlineStr">
         <is>
           <t>后厨杂乱
 操作不规范
@@ -9915,32 +10812,32 @@
           <t>西北名优小吃城</t>
         </is>
       </c>
-      <c r="C7" s="40" t="inlineStr">
+      <c r="C7" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D7" s="40" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>夏文波</t>
         </is>
       </c>
-      <c r="E7" s="40" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>庞姣</t>
         </is>
       </c>
-      <c r="F7" s="40" t="inlineStr">
+      <c r="F7" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G7" s="40" t="inlineStr">
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>中高</t>
         </is>
       </c>
-      <c r="H7" s="40" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>过期食品
 库房杂乱</t>
@@ -9954,33 +10851,33 @@
           <t>（1）号食堂</t>
         </is>
       </c>
-      <c r="C8" s="40" t="inlineStr">
+      <c r="C8" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D8" s="40" t="inlineStr">
+      <c r="D8" s="37" t="inlineStr">
         <is>
           <t>张广华</t>
         </is>
       </c>
-      <c r="E8" s="40" t="inlineStr">
+      <c r="E8" s="37" t="inlineStr">
         <is>
           <t>孙冬梅
 罗强红</t>
         </is>
       </c>
-      <c r="F8" s="40" t="inlineStr">
+      <c r="F8" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G8" s="40" t="inlineStr">
+      <c r="G8" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H8" s="40" t="inlineStr">
+      <c r="H8" s="37" t="inlineStr">
         <is>
           <t>生熟混放、容器直接置于地面、粗加工在热厨间进行等
 馒头微生物曾超标
@@ -9995,32 +10892,32 @@
           <t>新林顿利</t>
         </is>
       </c>
-      <c r="C9" s="40" t="inlineStr">
+      <c r="C9" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D9" s="40" t="inlineStr">
+      <c r="D9" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E9" s="40" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F9" s="40" t="inlineStr">
+      <c r="F9" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G9" s="40" t="inlineStr">
+      <c r="G9" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H9" s="40" t="inlineStr">
+      <c r="H9" s="37" t="inlineStr">
         <is>
           <t>半成品存放不规范</t>
         </is>
@@ -10033,24 +10930,24 @@
           <t>汉堡王</t>
         </is>
       </c>
-      <c r="C10" s="40" t="inlineStr">
+      <c r="C10" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D10" s="40" t="n"/>
-      <c r="E10" s="40" t="n"/>
-      <c r="F10" s="40" t="inlineStr">
+      <c r="D10" s="37" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G10" s="40" t="inlineStr">
+      <c r="G10" s="37" t="inlineStr">
         <is>
           <t>低</t>
         </is>
       </c>
-      <c r="H10" s="40" t="inlineStr">
+      <c r="H10" s="37" t="inlineStr">
         <is>
           <t>饮料品种不全。。</t>
         </is>
@@ -10063,32 +10960,32 @@
           <t>小西湖牛肉面</t>
         </is>
       </c>
-      <c r="C11" s="40" t="inlineStr">
+      <c r="C11" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D11" s="40" t="inlineStr">
+      <c r="D11" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F11" s="40" t="inlineStr">
+      <c r="F11" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G11" s="40" t="inlineStr">
+      <c r="G11" s="37" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="H11" s="40" t="inlineStr">
+      <c r="H11" s="37" t="inlineStr">
         <is>
           <t>后厨杂乱
 牛肉汤易腐
@@ -10098,7 +10995,7 @@
       </c>
     </row>
     <row r="12" ht="38" customHeight="1">
-      <c r="A12" s="47" t="inlineStr">
+      <c r="A12" s="39" t="inlineStr">
         <is>
           <t>食品销售</t>
         </is>
@@ -10108,32 +11005,32 @@
           <t>首信经营部</t>
         </is>
       </c>
-      <c r="C12" s="40" t="inlineStr">
+      <c r="C12" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D12" s="40" t="inlineStr">
+      <c r="D12" s="37" t="inlineStr">
         <is>
           <t>夏文波</t>
         </is>
       </c>
-      <c r="E12" s="40" t="inlineStr">
+      <c r="E12" s="37" t="inlineStr">
         <is>
           <t>星青华</t>
         </is>
       </c>
-      <c r="F12" s="40" t="inlineStr">
+      <c r="F12" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G12" s="40" t="inlineStr">
+      <c r="G12" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H12" s="40" t="inlineStr">
+      <c r="H12" s="37" t="inlineStr">
         <is>
           <t>过期食品
 有多处店址，监管不全</t>
@@ -10147,28 +11044,28 @@
           <t>货场小卖部</t>
         </is>
       </c>
-      <c r="C13" s="40" t="inlineStr">
+      <c r="C13" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D13" s="40" t="n"/>
-      <c r="E13" s="40" t="inlineStr">
+      <c r="D13" s="37" t="n"/>
+      <c r="E13" s="37" t="inlineStr">
         <is>
           <t>张天浩</t>
         </is>
       </c>
-      <c r="F13" s="40" t="inlineStr">
+      <c r="F13" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G13" s="40" t="inlineStr">
+      <c r="G13" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H13" s="40" t="inlineStr">
+      <c r="H13" s="37" t="inlineStr">
         <is>
           <t>过期食品</t>
         </is>
@@ -10181,24 +11078,24 @@
           <t>青青稞酒</t>
         </is>
       </c>
-      <c r="C14" s="40" t="inlineStr">
+      <c r="C14" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D14" s="40" t="n"/>
-      <c r="E14" s="40" t="n"/>
-      <c r="F14" s="40" t="inlineStr">
+      <c r="D14" s="37" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G14" s="40" t="inlineStr">
+      <c r="G14" s="37" t="inlineStr">
         <is>
           <t>低</t>
         </is>
       </c>
-      <c r="H14" s="40" t="inlineStr">
+      <c r="H14" s="37" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -10211,24 +11108,24 @@
           <t>贵宾厅</t>
         </is>
       </c>
-      <c r="C15" s="40" t="inlineStr">
+      <c r="C15" s="37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D15" s="40" t="n"/>
-      <c r="E15" s="40" t="n"/>
-      <c r="F15" s="40" t="inlineStr">
+      <c r="D15" s="37" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="inlineStr">
         <is>
           <t>不积极</t>
         </is>
       </c>
-      <c r="G15" s="40" t="inlineStr">
+      <c r="G15" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H15" s="40" t="inlineStr">
+      <c r="H15" s="37" t="inlineStr">
         <is>
           <t>员工食品安全意识淡薄
 卫生管理制度落实不到位</t>
@@ -10242,28 +11139,28 @@
           <t>阿米雪</t>
         </is>
       </c>
-      <c r="C16" s="40" t="inlineStr">
+      <c r="C16" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D16" s="40" t="inlineStr">
+      <c r="D16" s="37" t="inlineStr">
         <is>
           <t>邵燕</t>
         </is>
       </c>
-      <c r="E16" s="40" t="n"/>
-      <c r="F16" s="40" t="inlineStr">
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G16" s="40" t="inlineStr">
+      <c r="G16" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H16" s="40" t="inlineStr">
+      <c r="H16" s="37" t="inlineStr">
         <is>
           <t>冷藏温度不达标</t>
         </is>
@@ -10276,32 +11173,32 @@
           <t>益鑫手抓</t>
         </is>
       </c>
-      <c r="C17" s="40" t="inlineStr">
+      <c r="C17" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D17" s="40" t="inlineStr">
+      <c r="D17" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E17" s="40" t="inlineStr">
+      <c r="E17" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F17" s="40" t="inlineStr">
+      <c r="F17" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G17" s="40" t="inlineStr">
+      <c r="G17" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H17" s="40" t="inlineStr">
+      <c r="H17" s="37" t="inlineStr">
         <is>
           <t>现场操作存在风险但较难界定</t>
         </is>
@@ -10314,29 +11211,29 @@
           <t>空港酒店</t>
         </is>
       </c>
-      <c r="C18" s="40" t="inlineStr">
+      <c r="C18" s="37" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D18" s="40" t="n"/>
-      <c r="E18" s="40" t="inlineStr">
+      <c r="D18" s="37" t="n"/>
+      <c r="E18" s="37" t="inlineStr">
         <is>
           <t>王永芳
 王生鹏</t>
         </is>
       </c>
-      <c r="F18" s="40" t="inlineStr">
+      <c r="F18" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G18" s="40" t="inlineStr">
+      <c r="G18" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H18" s="40" t="inlineStr">
+      <c r="H18" s="37" t="inlineStr">
         <is>
           <t>过期食品</t>
         </is>
@@ -10349,28 +11246,28 @@
           <t>诺蓝杞</t>
         </is>
       </c>
-      <c r="C19" s="40" t="inlineStr">
+      <c r="C19" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D19" s="40" t="inlineStr">
+      <c r="D19" s="37" t="inlineStr">
         <is>
           <t>祝克兰</t>
         </is>
       </c>
-      <c r="E19" s="40" t="n"/>
-      <c r="F19" s="40" t="inlineStr">
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G19" s="40" t="inlineStr">
+      <c r="G19" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H19" s="40" t="inlineStr">
+      <c r="H19" s="37" t="inlineStr">
         <is>
           <t>过期食品</t>
         </is>
@@ -10383,32 +11280,32 @@
           <t>一木山楂</t>
         </is>
       </c>
-      <c r="C20" s="40" t="inlineStr">
+      <c r="C20" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D20" s="40" t="inlineStr">
+      <c r="D20" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E20" s="40" t="inlineStr">
+      <c r="E20" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F20" s="40" t="inlineStr">
+      <c r="F20" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G20" s="40" t="inlineStr">
+      <c r="G20" s="37" t="inlineStr">
         <is>
           <t>中高</t>
         </is>
       </c>
-      <c r="H20" s="40" t="inlineStr">
+      <c r="H20" s="37" t="inlineStr">
         <is>
           <t>过期食品
 在超范围经营的边缘疯狂试探
@@ -10424,28 +11321,28 @@
           <t>源武黑鸭</t>
         </is>
       </c>
-      <c r="C21" s="40" t="inlineStr">
+      <c r="C21" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D21" s="40" t="inlineStr">
+      <c r="D21" s="37" t="inlineStr">
         <is>
           <t>高晓娟</t>
         </is>
       </c>
-      <c r="E21" s="40" t="n"/>
-      <c r="F21" s="40" t="inlineStr">
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G21" s="40" t="inlineStr">
+      <c r="G21" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H21" s="40" t="inlineStr">
+      <c r="H21" s="37" t="inlineStr">
         <is>
           <t>食品保质期较短
 过期食品
@@ -10460,28 +11357,28 @@
           <t>天佑牧人（2楼）</t>
         </is>
       </c>
-      <c r="C22" s="40" t="inlineStr">
+      <c r="C22" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D22" s="40" t="inlineStr">
+      <c r="D22" s="37" t="inlineStr">
         <is>
           <t>高丹</t>
         </is>
       </c>
-      <c r="E22" s="40" t="n"/>
-      <c r="F22" s="40" t="inlineStr">
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G22" s="40" t="inlineStr">
+      <c r="G22" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H22" s="40" t="inlineStr">
+      <c r="H22" s="37" t="inlineStr">
         <is>
           <t>散装食品</t>
         </is>
@@ -10494,28 +11391,28 @@
           <t>天佑牧人（1楼）</t>
         </is>
       </c>
-      <c r="C23" s="40" t="inlineStr">
+      <c r="C23" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D23" s="40" t="inlineStr">
+      <c r="D23" s="37" t="inlineStr">
         <is>
           <t>高丹</t>
         </is>
       </c>
-      <c r="E23" s="40" t="n"/>
-      <c r="F23" s="40" t="inlineStr">
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G23" s="40" t="inlineStr">
+      <c r="G23" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H23" s="40" t="inlineStr">
+      <c r="H23" s="37" t="inlineStr">
         <is>
           <t>散装食品</t>
         </is>
@@ -10528,66 +11425,66 @@
           <t>千紫缘</t>
         </is>
       </c>
-      <c r="C24" s="40" t="inlineStr">
+      <c r="C24" s="37" t="inlineStr">
         <is>
           <t>未定级</t>
         </is>
       </c>
-      <c r="D24" s="40" t="inlineStr">
+      <c r="D24" s="37" t="inlineStr">
         <is>
           <t>赵玉录</t>
         </is>
       </c>
-      <c r="E24" s="40" t="n"/>
-      <c r="F24" s="40" t="inlineStr">
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="inlineStr">
         <is>
           <t>较积极</t>
         </is>
       </c>
-      <c r="G24" s="40" t="inlineStr">
+      <c r="G24" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H24" s="40" t="inlineStr">
+      <c r="H24" s="37" t="inlineStr">
         <is>
           <t>食品标签、保质期等信息</t>
         </is>
       </c>
     </row>
     <row r="25" ht="57" customHeight="1">
-      <c r="A25" s="47" t="inlineStr">
+      <c r="A25" s="39" t="inlineStr">
         <is>
           <t>饮用水供应</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
+      <c r="B25" s="37" t="inlineStr">
         <is>
           <t>水站</t>
         </is>
       </c>
-      <c r="C25" s="40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="40" t="inlineStr">
+      <c r="C25" s="37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="37" t="inlineStr">
         <is>
           <t>刘娥玉</t>
         </is>
       </c>
-      <c r="E25" s="40" t="n"/>
-      <c r="F25" s="40" t="inlineStr">
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G25" s="40" t="inlineStr">
+      <c r="G25" s="37" t="inlineStr">
         <is>
           <t>高</t>
         </is>
       </c>
-      <c r="H25" s="40" t="inlineStr">
+      <c r="H25" s="37" t="inlineStr">
         <is>
           <t>无加氯设备
 监管依据不够明确
@@ -10596,34 +11493,34 @@
       </c>
     </row>
     <row r="26" ht="38" customHeight="1">
-      <c r="A26" s="47" t="inlineStr">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>公共场所</t>
         </is>
       </c>
-      <c r="B26" s="40" t="inlineStr">
+      <c r="B26" s="37" t="inlineStr">
         <is>
           <t>贵宾厅</t>
         </is>
       </c>
-      <c r="C26" s="40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="40" t="n"/>
-      <c r="E26" s="40" t="n"/>
-      <c r="F26" s="40" t="inlineStr">
+      <c r="C26" s="37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="37" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="inlineStr">
         <is>
           <t>不积极</t>
         </is>
       </c>
-      <c r="G26" s="40" t="inlineStr">
+      <c r="G26" s="37" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="H26" s="40" t="inlineStr">
+      <c r="H26" s="37" t="inlineStr">
         <is>
           <t>室内微小气候及空气质量较差</t>
         </is>
@@ -10631,34 +11528,34 @@
     </row>
     <row r="27" ht="38" customHeight="1">
       <c r="A27" s="36" t="n"/>
-      <c r="B27" s="40" t="inlineStr">
+      <c r="B27" s="37" t="inlineStr">
         <is>
           <t>空港酒店</t>
         </is>
       </c>
-      <c r="C27" s="40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="40" t="n"/>
-      <c r="E27" s="40" t="inlineStr">
+      <c r="C27" s="37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="37" t="n"/>
+      <c r="E27" s="37" t="inlineStr">
         <is>
           <t>王永芳
 王生鹏</t>
         </is>
       </c>
-      <c r="F27" s="40" t="inlineStr">
+      <c r="F27" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G27" s="40" t="inlineStr">
+      <c r="G27" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H27" s="40" t="inlineStr">
+      <c r="H27" s="37" t="inlineStr">
         <is>
           <t>饮具卧具亟需进行微生物检验</t>
         </is>
@@ -10666,295 +11563,286 @@
     </row>
     <row r="28">
       <c r="A28" s="35" t="n"/>
-      <c r="B28" s="40" t="inlineStr">
+      <c r="B28" s="37" t="inlineStr">
         <is>
           <t>新林顿利</t>
         </is>
       </c>
-      <c r="C28" s="40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" s="40" t="inlineStr">
+      <c r="C28" s="37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="37" t="inlineStr">
         <is>
           <t>刘蓉</t>
         </is>
       </c>
-      <c r="E28" s="40" t="inlineStr">
+      <c r="E28" s="37" t="inlineStr">
         <is>
           <t>王晓宁</t>
         </is>
       </c>
-      <c r="F28" s="40" t="inlineStr">
+      <c r="F28" s="37" t="inlineStr">
         <is>
           <t>积极</t>
         </is>
       </c>
-      <c r="G28" s="40" t="inlineStr">
+      <c r="G28" s="37" t="inlineStr">
         <is>
           <t>中低</t>
         </is>
       </c>
-      <c r="H28" s="40" t="inlineStr">
+      <c r="H28" s="37" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
     </row>
     <row r="31" ht="19" customHeight="1">
-      <c r="A31" s="47" t="n"/>
-      <c r="B31" s="40" t="inlineStr">
+      <c r="A31" s="39" t="n"/>
+      <c r="B31" s="37" t="inlineStr">
         <is>
           <t>预计新增企业</t>
         </is>
       </c>
-      <c r="C31" s="40" t="inlineStr">
+      <c r="C31" s="37" t="inlineStr">
         <is>
           <t>预计新增数量</t>
         </is>
       </c>
-      <c r="D31" s="39" t="n"/>
-      <c r="E31" s="40" t="inlineStr">
+      <c r="D31" s="38" t="n"/>
+      <c r="E31" s="37" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
-      <c r="F31" s="39" t="n"/>
+      <c r="F31" s="38" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="inlineStr">
+      <c r="A32" s="39" t="inlineStr">
         <is>
           <t>食品销售</t>
         </is>
       </c>
-      <c r="B32" s="40" t="inlineStr">
+      <c r="B32" s="37" t="inlineStr">
         <is>
           <t>首信购物</t>
         </is>
       </c>
-      <c r="C32" s="40" t="n">
+      <c r="C32" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="39" t="n"/>
-      <c r="E32" s="41" t="inlineStr">
+      <c r="D32" s="38" t="n"/>
+      <c r="E32" s="42" t="inlineStr">
         <is>
           <t>口岸卫生许可证由卫检处办核发，由于不了解卫检处工作情况，故无法得知具体办理进度，但预计大部分企业将于年内开始营业。</t>
         </is>
       </c>
-      <c r="F32" s="42" t="n"/>
+      <c r="F32" s="43" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="36" t="n"/>
-      <c r="B33" s="40" t="inlineStr">
+      <c r="B33" s="37" t="inlineStr">
         <is>
           <t>千紫缘</t>
         </is>
       </c>
-      <c r="C33" s="40" t="n">
+      <c r="C33" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="39" t="n"/>
-      <c r="E33" s="43" t="n"/>
-      <c r="F33" s="44" t="n"/>
+      <c r="D33" s="38" t="n"/>
+      <c r="E33" s="44" t="n"/>
+      <c r="F33" s="45" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="36" t="n"/>
-      <c r="B34" s="40" t="inlineStr">
+      <c r="B34" s="37" t="inlineStr">
         <is>
           <t>房车营地</t>
         </is>
       </c>
-      <c r="C34" s="40" t="n">
+      <c r="C34" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="39" t="n"/>
-      <c r="E34" s="43" t="n"/>
-      <c r="F34" s="44" t="n"/>
+      <c r="D34" s="38" t="n"/>
+      <c r="E34" s="44" t="n"/>
+      <c r="F34" s="45" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="35" t="n"/>
-      <c r="B35" s="40" t="inlineStr">
+      <c r="B35" s="37" t="inlineStr">
         <is>
           <t>空港生态园</t>
         </is>
       </c>
-      <c r="C35" s="40" t="n">
+      <c r="C35" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="39" t="n"/>
-      <c r="E35" s="43" t="n"/>
-      <c r="F35" s="44" t="n"/>
+      <c r="D35" s="38" t="n"/>
+      <c r="E35" s="44" t="n"/>
+      <c r="F35" s="45" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="inlineStr">
+      <c r="A36" s="39" t="inlineStr">
         <is>
           <t>公共场所</t>
         </is>
       </c>
-      <c r="B36" s="40" t="inlineStr">
+      <c r="B36" s="37" t="inlineStr">
         <is>
           <t>头等舱贵宾厅</t>
         </is>
       </c>
-      <c r="C36" s="40" t="n">
+      <c r="C36" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="39" t="n"/>
-      <c r="E36" s="43" t="n"/>
-      <c r="F36" s="44" t="n"/>
+      <c r="D36" s="38" t="n"/>
+      <c r="E36" s="44" t="n"/>
+      <c r="F36" s="45" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="36" t="n"/>
-      <c r="B37" s="40" t="inlineStr">
+      <c r="B37" s="37" t="inlineStr">
         <is>
           <t>商旅贵宾厅</t>
         </is>
       </c>
-      <c r="C37" s="40" t="n">
+      <c r="C37" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="39" t="n"/>
-      <c r="E37" s="43" t="n"/>
-      <c r="F37" s="44" t="n"/>
+      <c r="D37" s="38" t="n"/>
+      <c r="E37" s="44" t="n"/>
+      <c r="F37" s="45" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="36" t="n"/>
-      <c r="B38" s="40" t="inlineStr">
+      <c r="B38" s="37" t="inlineStr">
         <is>
           <t>T1候机厅</t>
         </is>
       </c>
-      <c r="C38" s="40" t="n">
+      <c r="C38" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="39" t="n"/>
-      <c r="E38" s="43" t="n"/>
-      <c r="F38" s="44" t="n"/>
+      <c r="D38" s="38" t="n"/>
+      <c r="E38" s="44" t="n"/>
+      <c r="F38" s="45" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="35" t="n"/>
-      <c r="B39" s="40" t="inlineStr">
+      <c r="B39" s="37" t="inlineStr">
         <is>
           <t>T2候机厅</t>
         </is>
       </c>
-      <c r="C39" s="40" t="n">
+      <c r="C39" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="39" t="n"/>
-      <c r="E39" s="43" t="n"/>
-      <c r="F39" s="44" t="n"/>
+      <c r="D39" s="38" t="n"/>
+      <c r="E39" s="44" t="n"/>
+      <c r="F39" s="45" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="inlineStr">
+      <c r="A40" s="39" t="inlineStr">
         <is>
           <t>餐饮业</t>
         </is>
       </c>
-      <c r="B40" s="40" t="inlineStr">
+      <c r="B40" s="37" t="inlineStr">
         <is>
           <t>一叶一世界</t>
         </is>
       </c>
-      <c r="C40" s="40" t="n">
+      <c r="C40" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="39" t="n"/>
-      <c r="E40" s="43" t="n"/>
-      <c r="F40" s="44" t="n"/>
+      <c r="D40" s="38" t="n"/>
+      <c r="E40" s="44" t="n"/>
+      <c r="F40" s="45" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="36" t="n"/>
-      <c r="B41" s="40" t="inlineStr">
+      <c r="B41" s="37" t="inlineStr">
         <is>
           <t>空港生态园</t>
         </is>
       </c>
-      <c r="C41" s="40" t="n">
+      <c r="C41" s="37" t="n">
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="n"/>
-      <c r="E41" s="43" t="n"/>
-      <c r="F41" s="44" t="n"/>
+      <c r="D41" s="38" t="n"/>
+      <c r="E41" s="44" t="n"/>
+      <c r="F41" s="45" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="35" t="n"/>
-      <c r="B42" s="40" t="inlineStr">
+      <c r="B42" s="37" t="inlineStr">
         <is>
           <t>清真餐厅</t>
         </is>
       </c>
-      <c r="C42" s="40" t="n">
+      <c r="C42" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="39" t="n"/>
-      <c r="E42" s="43" t="n"/>
-      <c r="F42" s="44" t="n"/>
+      <c r="D42" s="38" t="n"/>
+      <c r="E42" s="44" t="n"/>
+      <c r="F42" s="45" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="inlineStr">
+      <c r="A43" s="39" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="B43" s="39" t="n"/>
-      <c r="C43" s="40" t="n">
+      <c r="B43" s="38" t="n"/>
+      <c r="C43" s="37" t="n">
         <v>24</v>
       </c>
-      <c r="D43" s="39" t="n"/>
-      <c r="E43" s="45" t="n"/>
-      <c r="F43" s="46" t="n"/>
+      <c r="D43" s="38" t="n"/>
+      <c r="E43" s="46" t="n"/>
+      <c r="F43" s="47" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="37" t="inlineStr">
+      <c r="A45" s="40" t="inlineStr">
         <is>
           <t>困难1：行政处罚相关程序、做法亟需理顺</t>
         </is>
       </c>
-      <c r="B45" s="38" t="n"/>
-      <c r="C45" s="38" t="n"/>
-      <c r="D45" s="38" t="n"/>
-      <c r="E45" s="38" t="n"/>
-      <c r="F45" s="39" t="n"/>
+      <c r="B45" s="41" t="n"/>
+      <c r="C45" s="41" t="n"/>
+      <c r="D45" s="41" t="n"/>
+      <c r="E45" s="41" t="n"/>
+      <c r="F45" s="38" t="n"/>
       <c r="G45" s="11" t="n"/>
       <c r="H45" s="11" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="37" t="inlineStr">
+      <c r="A46" s="40" t="inlineStr">
         <is>
           <t>困难2：人员严重不足</t>
         </is>
       </c>
-      <c r="B46" s="38" t="n"/>
-      <c r="C46" s="38" t="n"/>
-      <c r="D46" s="38" t="n"/>
-      <c r="E46" s="38" t="n"/>
-      <c r="F46" s="39" t="n"/>
+      <c r="B46" s="41" t="n"/>
+      <c r="C46" s="41" t="n"/>
+      <c r="D46" s="41" t="n"/>
+      <c r="E46" s="41" t="n"/>
+      <c r="F46" s="38" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="37" t="inlineStr">
+      <c r="A47" s="40" t="inlineStr">
         <is>
           <t>困难3：应根据卫生监督员资格考评大纲组织学习</t>
         </is>
       </c>
-      <c r="B47" s="38" t="n"/>
-      <c r="C47" s="38" t="n"/>
-      <c r="D47" s="38" t="n"/>
-      <c r="E47" s="38" t="n"/>
-      <c r="F47" s="39" t="n"/>
+      <c r="B47" s="41" t="n"/>
+      <c r="C47" s="41" t="n"/>
+      <c r="D47" s="41" t="n"/>
+      <c r="E47" s="41" t="n"/>
+      <c r="F47" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="E31:F31"/>
@@ -10971,6 +11859,15 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
